--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H2">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I2">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J2">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>0.1168635074603333</v>
+        <v>0.3591750997568889</v>
       </c>
       <c r="R2">
-        <v>1.051771567143</v>
+        <v>3.232575897812</v>
       </c>
       <c r="S2">
-        <v>0.2294622946106272</v>
+        <v>0.07670968069238009</v>
       </c>
       <c r="T2">
-        <v>0.2294622946106272</v>
+        <v>0.07670968069238009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,61 +596,61 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.852535666666667</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H3">
-        <v>5.557607</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I3">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J3">
-        <v>0.315753910656914</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>0.04394770362033334</v>
+        <v>1.936580377966889</v>
       </c>
       <c r="R3">
-        <v>0.395529332583</v>
+        <v>17.429223401702</v>
       </c>
       <c r="S3">
-        <v>0.08629161604628681</v>
+        <v>0.4135990009594744</v>
       </c>
       <c r="T3">
-        <v>0.0862916160462868</v>
+        <v>0.4135990009594744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -655,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.014487999999999</v>
+        <v>2.208740666666666</v>
       </c>
       <c r="H4">
-        <v>12.043464</v>
+        <v>6.626221999999999</v>
       </c>
       <c r="I4">
-        <v>0.684246089343086</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="J4">
-        <v>0.684246089343086</v>
+        <v>0.5931493987290414</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>0.253245946504</v>
+        <v>0.48152755274</v>
       </c>
       <c r="R4">
-        <v>2.279213518536</v>
+        <v>4.33374797466</v>
       </c>
       <c r="S4">
-        <v>0.4972501446216839</v>
+        <v>0.1028407170771869</v>
       </c>
       <c r="T4">
-        <v>0.4972501446216838</v>
+        <v>0.1028407170771869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1917523333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.575257</v>
+      </c>
+      <c r="I5">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="J5">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.487846</v>
+      </c>
+      <c r="O5">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P5">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q5">
+        <v>0.03118186960244444</v>
+      </c>
+      <c r="R5">
+        <v>0.280636826422</v>
+      </c>
+      <c r="S5">
+        <v>0.006659568723483229</v>
+      </c>
+      <c r="T5">
+        <v>0.006659568723483229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1917523333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.575257</v>
+      </c>
+      <c r="I6">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="J6">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.630341</v>
+      </c>
+      <c r="O6">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P6">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q6">
+        <v>0.1681246747374444</v>
+      </c>
+      <c r="R6">
+        <v>1.513122072637</v>
+      </c>
+      <c r="S6">
+        <v>0.03590669320993838</v>
+      </c>
+      <c r="T6">
+        <v>0.03590669320993838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1917523333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.575257</v>
+      </c>
+      <c r="I7">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="J7">
+        <v>0.05149440264221032</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.21801</v>
+      </c>
+      <c r="N7">
+        <v>0.65403</v>
+      </c>
+      <c r="O7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q7">
+        <v>0.04180392619</v>
+      </c>
+      <c r="R7">
+        <v>0.37623533571</v>
+      </c>
+      <c r="S7">
+        <v>0.008928140708788709</v>
+      </c>
+      <c r="T7">
+        <v>0.008928140708788709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.323258</v>
+      </c>
+      <c r="H8">
+        <v>3.969774</v>
+      </c>
+      <c r="I8">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J8">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.487846</v>
+      </c>
+      <c r="O8">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P8">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q8">
+        <v>0.215182040756</v>
+      </c>
+      <c r="R8">
+        <v>1.936638366804</v>
+      </c>
+      <c r="S8">
+        <v>0.04595682063790082</v>
+      </c>
+      <c r="T8">
+        <v>0.04595682063790082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.014487999999999</v>
-      </c>
-      <c r="H5">
-        <v>12.043464</v>
-      </c>
-      <c r="I5">
-        <v>0.684246089343086</v>
-      </c>
-      <c r="J5">
-        <v>0.684246089343086</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.023723</v>
-      </c>
-      <c r="N5">
-        <v>0.07116900000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.2732875607676889</v>
-      </c>
-      <c r="P5">
-        <v>0.2732875607676888</v>
-      </c>
-      <c r="Q5">
-        <v>0.095235698824</v>
-      </c>
-      <c r="R5">
-        <v>0.857121289416</v>
-      </c>
-      <c r="S5">
-        <v>0.1869959447214021</v>
-      </c>
-      <c r="T5">
-        <v>0.186995944721402</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.323258</v>
+      </c>
+      <c r="H9">
+        <v>3.969774</v>
+      </c>
+      <c r="I9">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J9">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.630341</v>
+      </c>
+      <c r="O9">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P9">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q9">
+        <v>1.160206590326</v>
+      </c>
+      <c r="R9">
+        <v>10.441859312934</v>
+      </c>
+      <c r="S9">
+        <v>0.2477874361038457</v>
+      </c>
+      <c r="T9">
+        <v>0.2477874361038457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.323258</v>
+      </c>
+      <c r="H10">
+        <v>3.969774</v>
+      </c>
+      <c r="I10">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="J10">
+        <v>0.3553561986287483</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.21801</v>
+      </c>
+      <c r="N10">
+        <v>0.65403</v>
+      </c>
+      <c r="O10">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P10">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q10">
+        <v>0.28848347658</v>
+      </c>
+      <c r="R10">
+        <v>2.59635128922</v>
+      </c>
+      <c r="S10">
+        <v>0.06161194188700179</v>
+      </c>
+      <c r="T10">
+        <v>0.06161194188700179</v>
       </c>
     </row>
   </sheetData>
